--- a/Dataset/Club_Skills_Dataset_Extended.xlsx
+++ b/Dataset/Club_Skills_Dataset_Extended.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Python install\python project\Book recommandation\temp\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FAC5C30-0A22-43BF-96B4-DA5466531283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF37F1D6-733E-42F6-B434-0E636E48EA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1318" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1342" uniqueCount="331">
   <si>
     <t>Sr. No</t>
   </si>
@@ -31,15 +31,9 @@
     <t>Skill</t>
   </si>
   <si>
-    <t>AALEKH - Art Elated Club</t>
-  </si>
-  <si>
     <t>AERO</t>
   </si>
   <si>
-    <t>CodeChef MITAOE Chapter</t>
-  </si>
-  <si>
     <t>Digital Design</t>
   </si>
   <si>
@@ -916,18 +910,12 @@
     <t>Pattern Recognition</t>
   </si>
   <si>
-    <t>Google Developer Groups</t>
-  </si>
-  <si>
     <t>https://mitaoe.ac.in/assets/images/club/aero.jpg</t>
   </si>
   <si>
     <t>https://mitaoe.ac.in/assets/images/club/aalekh.jpg</t>
   </si>
   <si>
-    <t>TEAM NIYUDRATH RACING (TNR) - AUTOSPORTS CLUB</t>
-  </si>
-  <si>
     <t>https://mitaoe.ac.in/assets/images/club/autosports.jpg</t>
   </si>
   <si>
@@ -985,13 +973,46 @@
     <t>https://mitaoe.ac.in/assets/images/club/foreign-language-club-new.png</t>
   </si>
   <si>
-    <t>https://mitaoe.ac.in/assets/images/club/girlscript.jpg</t>
-  </si>
-  <si>
     <t>https://mitaoe.ac.in/assets/images/club/goonj.jpg</t>
   </si>
   <si>
     <t>https://mitaoe.ac.in/assets/images/club/ignitedminds.jpg</t>
+  </si>
+  <si>
+    <t>https://media.licdn.com/dms/image/v2/C4D0BAQGIb09ZW2tSUw/company-logo_200_200/company-logo_200_200/0/1631352051361?e=1742428800&amp;v=beta&amp;t=UQILaAnELv4AUxc0kAxVjqcoEJJKJblRj8PMHo882dU</t>
+  </si>
+  <si>
+    <t>AALEKH</t>
+  </si>
+  <si>
+    <t>NIYUDRATH</t>
+  </si>
+  <si>
+    <t>CodeChef</t>
+  </si>
+  <si>
+    <t>Google Developer</t>
+  </si>
+  <si>
+    <t>C Programming</t>
+  </si>
+  <si>
+    <t>C++ Programming</t>
+  </si>
+  <si>
+    <t>Java Programming</t>
+  </si>
+  <si>
+    <t>SQL</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Basics of Machine Learning</t>
+  </si>
+  <si>
+    <t>Power BI</t>
   </si>
 </sst>
 </file>
@@ -1384,10 +1405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D439"/>
+  <dimension ref="A1:D449"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D215" workbookViewId="0">
-      <selection activeCell="D210" sqref="D210:D230"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1409,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1417,13 +1438,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -1431,13 +1452,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -1445,13 +1466,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -1459,13 +1480,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -1473,13 +1494,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1487,13 +1508,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -1501,13 +1522,13 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -1515,13 +1536,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="C9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1529,13 +1550,13 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1543,13 +1564,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1557,13 +1578,13 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1571,13 +1592,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1585,13 +1606,13 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1599,13 +1620,13 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1613,13 +1634,13 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1627,13 +1648,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1641,13 +1662,13 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1655,13 +1676,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="C19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1669,13 +1690,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1683,13 +1704,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1697,13 +1718,13 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1711,13 +1732,13 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1725,13 +1746,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1739,13 +1760,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1753,13 +1774,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1767,13 +1788,13 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1781,13 +1802,13 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1795,13 +1816,13 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1809,13 +1830,13 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1823,13 +1844,13 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1837,13 +1858,13 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1851,13 +1872,13 @@
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1865,13 +1886,13 @@
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1879,13 +1900,13 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1893,13 +1914,13 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1907,13 +1928,13 @@
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1921,13 +1942,13 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1935,13 +1956,13 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1949,13 +1970,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1963,13 +1984,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1977,13 +1998,13 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1991,13 +2012,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -2005,13 +2026,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -2019,13 +2040,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -2033,13 +2054,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -2047,13 +2068,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -2061,13 +2082,13 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C48" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -2075,13 +2096,13 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -2089,13 +2110,13 @@
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -2103,13 +2124,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C51" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -2117,13 +2138,13 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C52" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -2131,13 +2152,13 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -2145,13 +2166,13 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -2159,13 +2180,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -2173,13 +2194,13 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -2187,13 +2208,13 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -2201,13 +2222,13 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C58" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -2215,13 +2236,13 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -2229,13 +2250,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C60" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -2243,13 +2264,13 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C61" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -2257,13 +2278,13 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C62" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -2271,13 +2292,13 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C63" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -2285,13 +2306,13 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -2299,13 +2320,13 @@
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="C65" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -2313,13 +2334,13 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="C66" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -2327,13 +2348,13 @@
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="C67" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -2341,13 +2362,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="C68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -2355,13 +2376,13 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="C69" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -2369,13 +2390,13 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="C70" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -2383,13 +2404,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="C71" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -2397,13 +2418,13 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="C72" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -2411,13 +2432,13 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="C73" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2425,13 +2446,13 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="C74" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2439,13 +2460,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="C75" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -2453,13 +2474,13 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="C76" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -2467,13 +2488,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="C77" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -2481,13 +2502,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="C78" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -2495,13 +2516,13 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="C79" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -2509,13 +2530,13 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="C80" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -2523,13 +2544,13 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="C81" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -2537,13 +2558,13 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="C82" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -2551,13 +2572,13 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="C83" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -2565,13 +2586,13 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="C84" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -2579,13 +2600,13 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="C85" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -2593,13 +2614,13 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C86" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -2607,13 +2628,13 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C87" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -2621,13 +2642,13 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C88" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -2635,13 +2656,13 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C89" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -2649,13 +2670,13 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C90" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -2663,13 +2684,13 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C91" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2677,13 +2698,13 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C92" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2691,13 +2712,13 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C93" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2705,13 +2726,13 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C94" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2719,13 +2740,13 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C95" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2733,13 +2754,13 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C96" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2747,13 +2768,13 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C97" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2761,13 +2782,13 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C98" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2775,13 +2796,13 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C99" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2789,13 +2810,13 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C100" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2803,13 +2824,13 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C101" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2817,13 +2838,13 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C102" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2831,13 +2852,13 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C103" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2845,13 +2866,13 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C104" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2859,13 +2880,13 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C105" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2873,13 +2894,13 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>298</v>
+        <v>323</v>
       </c>
       <c r="C106" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2887,13 +2908,13 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2901,13 +2922,13 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C108" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2915,13 +2936,13 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C109" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2929,13 +2950,13 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C110" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2943,13 +2964,13 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C111" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2957,13 +2978,13 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C112" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2971,13 +2992,13 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C113" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2985,13 +3006,13 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C114" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2999,13 +3020,13 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C115" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -3013,13 +3034,13 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C116" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -3027,13 +3048,13 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -3041,13 +3062,13 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C118" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -3055,13 +3076,13 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C119" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -3069,13 +3090,13 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C120" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.3">
@@ -3083,13 +3104,13 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.3">
@@ -3097,13 +3118,13 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C122" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.3">
@@ -3111,13 +3132,13 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C123" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.3">
@@ -3125,13 +3146,13 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C124" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.3">
@@ -3139,13 +3160,13 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C125" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.3">
@@ -3153,13 +3174,13 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C126" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.3">
@@ -3167,13 +3188,13 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C127" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.3">
@@ -3181,13 +3202,13 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C128" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.3">
@@ -3195,13 +3216,13 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C129" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.3">
@@ -3209,13 +3230,13 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.3">
@@ -3223,13 +3244,13 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.3">
@@ -3237,13 +3258,13 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.3">
@@ -3251,13 +3272,13 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C133" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.3">
@@ -3265,13 +3286,13 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.3">
@@ -3279,13 +3300,13 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.3">
@@ -3293,13 +3314,13 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.3">
@@ -3307,13 +3328,13 @@
         <v>136</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.3">
@@ -3321,13 +3342,13 @@
         <v>137</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C138" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.3">
@@ -3335,13 +3356,13 @@
         <v>138</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.3">
@@ -3349,13 +3370,13 @@
         <v>139</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.3">
@@ -3363,13 +3384,13 @@
         <v>140</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.3">
@@ -3377,13 +3398,13 @@
         <v>141</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.3">
@@ -3391,13 +3412,13 @@
         <v>142</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.3">
@@ -3405,13 +3426,13 @@
         <v>143</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.3">
@@ -3419,13 +3440,13 @@
         <v>144</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.3">
@@ -3433,13 +3454,13 @@
         <v>145</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.3">
@@ -3447,13 +3468,13 @@
         <v>146</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.3">
@@ -3461,13 +3482,13 @@
         <v>147</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.3">
@@ -3475,13 +3496,13 @@
         <v>148</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.3">
@@ -3489,13 +3510,13 @@
         <v>149</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.3">
@@ -3503,13 +3524,13 @@
         <v>150</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.3">
@@ -3517,13 +3538,13 @@
         <v>151</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.3">
@@ -3531,13 +3552,13 @@
         <v>152</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.3">
@@ -3545,13 +3566,13 @@
         <v>153</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.3">
@@ -3559,13 +3580,13 @@
         <v>154</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.3">
@@ -3573,13 +3594,13 @@
         <v>155</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C156" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.3">
@@ -3587,13 +3608,13 @@
         <v>156</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.3">
@@ -3601,13 +3622,13 @@
         <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.3">
@@ -3615,13 +3636,13 @@
         <v>158</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.3">
@@ -3629,13 +3650,13 @@
         <v>159</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C160" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.3">
@@ -3643,13 +3664,13 @@
         <v>160</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.3">
@@ -3657,13 +3678,13 @@
         <v>161</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.3">
@@ -3671,13 +3692,13 @@
         <v>162</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.3">
@@ -3685,13 +3706,13 @@
         <v>163</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.3">
@@ -3699,13 +3720,13 @@
         <v>164</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C165" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.3">
@@ -3713,13 +3734,13 @@
         <v>165</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C166" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.3">
@@ -3727,13 +3748,13 @@
         <v>166</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.3">
@@ -3741,13 +3762,13 @@
         <v>167</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.3">
@@ -3755,13 +3776,13 @@
         <v>168</v>
       </c>
       <c r="B169" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.3">
@@ -3769,13 +3790,13 @@
         <v>169</v>
       </c>
       <c r="B170" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C170" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.3">
@@ -3783,13 +3804,13 @@
         <v>170</v>
       </c>
       <c r="B171" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.3">
@@ -3797,13 +3818,13 @@
         <v>171</v>
       </c>
       <c r="B172" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.3">
@@ -3811,13 +3832,13 @@
         <v>172</v>
       </c>
       <c r="B173" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.3">
@@ -3825,13 +3846,13 @@
         <v>173</v>
       </c>
       <c r="B174" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.3">
@@ -3839,13 +3860,13 @@
         <v>174</v>
       </c>
       <c r="B175" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.3">
@@ -3853,13 +3874,13 @@
         <v>175</v>
       </c>
       <c r="B176" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.3">
@@ -3867,13 +3888,13 @@
         <v>176</v>
       </c>
       <c r="B177" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.3">
@@ -3881,13 +3902,13 @@
         <v>177</v>
       </c>
       <c r="B178" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.3">
@@ -3895,13 +3916,13 @@
         <v>178</v>
       </c>
       <c r="B179" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.3">
@@ -3909,13 +3930,13 @@
         <v>179</v>
       </c>
       <c r="B180" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.3">
@@ -3923,13 +3944,13 @@
         <v>180</v>
       </c>
       <c r="B181" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.3">
@@ -3937,13 +3958,13 @@
         <v>181</v>
       </c>
       <c r="B182" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.3">
@@ -3951,13 +3972,13 @@
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.3">
@@ -3965,13 +3986,13 @@
         <v>183</v>
       </c>
       <c r="B184" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.3">
@@ -3979,13 +4000,13 @@
         <v>184</v>
       </c>
       <c r="B185" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.3">
@@ -3993,13 +4014,13 @@
         <v>185</v>
       </c>
       <c r="B186" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.3">
@@ -4007,13 +4028,13 @@
         <v>186</v>
       </c>
       <c r="B187" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.3">
@@ -4021,13 +4042,13 @@
         <v>187</v>
       </c>
       <c r="B188" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>149</v>
+        <v>324</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.3">
@@ -4035,13 +4056,13 @@
         <v>188</v>
       </c>
       <c r="B189" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>164</v>
+        <v>325</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.3">
@@ -4049,13 +4070,13 @@
         <v>189</v>
       </c>
       <c r="B190" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>156</v>
+        <v>326</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.3">
@@ -4063,13 +4084,13 @@
         <v>190</v>
       </c>
       <c r="B191" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>139</v>
+        <v>327</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.3">
@@ -4077,13 +4098,13 @@
         <v>191</v>
       </c>
       <c r="B192" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>49</v>
+        <v>328</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.3">
@@ -4091,13 +4112,13 @@
         <v>192</v>
       </c>
       <c r="B193" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>118</v>
+        <v>329</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.3">
@@ -4105,13 +4126,13 @@
         <v>193</v>
       </c>
       <c r="B194" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>165</v>
+        <v>330</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.3">
@@ -4119,13 +4140,13 @@
         <v>194</v>
       </c>
       <c r="B195" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C195" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.3">
@@ -4133,13 +4154,13 @@
         <v>195</v>
       </c>
       <c r="B196" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.3">
@@ -4147,13 +4168,13 @@
         <v>196</v>
       </c>
       <c r="B197" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>138</v>
+        <v>162</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.3">
@@ -4161,13 +4182,13 @@
         <v>197</v>
       </c>
       <c r="B198" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.3">
@@ -4175,13 +4196,13 @@
         <v>198</v>
       </c>
       <c r="B199" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.3">
@@ -4189,13 +4210,13 @@
         <v>199</v>
       </c>
       <c r="B200" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>168</v>
+        <v>47</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.3">
@@ -4203,13 +4224,13 @@
         <v>200</v>
       </c>
       <c r="B201" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>169</v>
+        <v>116</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.3">
@@ -4217,13 +4238,13 @@
         <v>201</v>
       </c>
       <c r="B202" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.3">
@@ -4231,13 +4252,13 @@
         <v>202</v>
       </c>
       <c r="B203" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>71</v>
+        <v>164</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.3">
@@ -4245,13 +4266,13 @@
         <v>203</v>
       </c>
       <c r="B204" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>171</v>
+        <v>104</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.3">
@@ -4259,13 +4280,13 @@
         <v>204</v>
       </c>
       <c r="B205" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.3">
@@ -4273,13 +4294,13 @@
         <v>205</v>
       </c>
       <c r="B206" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.3">
@@ -4287,13 +4308,13 @@
         <v>206</v>
       </c>
       <c r="B207" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.3">
@@ -4301,13 +4322,13 @@
         <v>207</v>
       </c>
       <c r="B208" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.3">
@@ -4315,13 +4336,13 @@
         <v>208</v>
       </c>
       <c r="B209" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.3">
@@ -4329,13 +4350,13 @@
         <v>209</v>
       </c>
       <c r="B210" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.3">
@@ -4343,13 +4364,13 @@
         <v>210</v>
       </c>
       <c r="B211" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>177</v>
+        <v>69</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.3">
@@ -4357,13 +4378,13 @@
         <v>211</v>
       </c>
       <c r="B212" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.3">
@@ -4371,13 +4392,13 @@
         <v>212</v>
       </c>
       <c r="B213" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.3">
@@ -4385,13 +4406,13 @@
         <v>213</v>
       </c>
       <c r="B214" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.3">
@@ -4399,13 +4420,13 @@
         <v>214</v>
       </c>
       <c r="B215" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.3">
@@ -4413,13 +4434,13 @@
         <v>215</v>
       </c>
       <c r="B216" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.3">
@@ -4427,13 +4448,13 @@
         <v>216</v>
       </c>
       <c r="B217" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.3">
@@ -4441,13 +4462,13 @@
         <v>217</v>
       </c>
       <c r="B218" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C218" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.3">
@@ -4455,13 +4476,13 @@
         <v>218</v>
       </c>
       <c r="B219" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C219" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.3">
@@ -4469,13 +4490,13 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C220" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.3">
@@ -4483,13 +4504,13 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C221" t="s">
-        <v>182</v>
+        <v>116</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.3">
@@ -4497,13 +4518,13 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C222" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.3">
@@ -4511,13 +4532,13 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C223" t="s">
-        <v>184</v>
+        <v>38</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.3">
@@ -4525,13 +4546,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C224" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.3">
@@ -4539,13 +4560,13 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C225" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.3">
@@ -4553,13 +4574,13 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C226" t="s">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.3">
@@ -4567,13 +4588,13 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C227" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.3">
@@ -4581,13 +4602,13 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C228" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.3">
@@ -4595,13 +4616,13 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C229" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.3">
@@ -4609,13 +4630,13 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C230" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.3">
@@ -4623,13 +4644,13 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C231" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.3">
@@ -4637,13 +4658,13 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C232" t="s">
-        <v>191</v>
+        <v>47</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.3">
@@ -4651,13 +4672,13 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C233" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.3">
@@ -4665,13 +4686,13 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C234" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.3">
@@ -4679,13 +4700,13 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C235" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.3">
@@ -4693,13 +4714,13 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C236" t="s">
-        <v>118</v>
+        <v>186</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.3">
@@ -4707,13 +4728,13 @@
         <v>236</v>
       </c>
       <c r="B237" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C237" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.3">
@@ -4721,13 +4742,13 @@
         <v>237</v>
       </c>
       <c r="B238" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C238" t="s">
-        <v>139</v>
+        <v>187</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.3">
@@ -4735,13 +4756,13 @@
         <v>238</v>
       </c>
       <c r="B239" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C239" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.3">
@@ -4749,13 +4770,13 @@
         <v>239</v>
       </c>
       <c r="B240" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C240" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.3">
@@ -4763,13 +4784,13 @@
         <v>240</v>
       </c>
       <c r="B241" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C241" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.3">
@@ -4777,13 +4798,13 @@
         <v>241</v>
       </c>
       <c r="B242" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C242" t="s">
-        <v>197</v>
+        <v>127</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.3">
@@ -4791,13 +4812,13 @@
         <v>242</v>
       </c>
       <c r="B243" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C243" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.3">
@@ -4805,13 +4826,13 @@
         <v>243</v>
       </c>
       <c r="B244" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C244" t="s">
-        <v>199</v>
+        <v>116</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.3">
@@ -4819,13 +4840,13 @@
         <v>244</v>
       </c>
       <c r="B245" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C245" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.3">
@@ -4833,13 +4854,13 @@
         <v>245</v>
       </c>
       <c r="B246" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C246" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.3">
@@ -4847,13 +4868,13 @@
         <v>246</v>
       </c>
       <c r="B247" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C247" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.3">
@@ -4861,13 +4882,13 @@
         <v>247</v>
       </c>
       <c r="B248" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C248" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.3">
@@ -4875,13 +4896,13 @@
         <v>248</v>
       </c>
       <c r="B249" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C249" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.3">
@@ -4889,13 +4910,13 @@
         <v>249</v>
       </c>
       <c r="B250" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C250" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.3">
@@ -4903,13 +4924,13 @@
         <v>250</v>
       </c>
       <c r="B251" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C251" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.3">
@@ -4917,13 +4938,13 @@
         <v>251</v>
       </c>
       <c r="B252" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="C252" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.3">
@@ -4931,13 +4952,13 @@
         <v>252</v>
       </c>
       <c r="B253" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="C253" t="s">
-        <v>217</v>
+        <v>198</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.3">
@@ -4945,13 +4966,13 @@
         <v>253</v>
       </c>
       <c r="B254" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="C254" t="s">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.3">
@@ -4959,13 +4980,13 @@
         <v>254</v>
       </c>
       <c r="B255" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="C255" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.3">
@@ -4973,13 +4994,13 @@
         <v>255</v>
       </c>
       <c r="B256" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="C256" t="s">
-        <v>18</v>
+        <v>200</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.3">
@@ -4987,13 +5008,13 @@
         <v>256</v>
       </c>
       <c r="B257" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="C257" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.3">
@@ -5001,13 +5022,13 @@
         <v>257</v>
       </c>
       <c r="B258" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="C258" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.3">
@@ -5015,13 +5036,13 @@
         <v>258</v>
       </c>
       <c r="B259" t="s">
-        <v>206</v>
+        <v>10</v>
       </c>
       <c r="C259" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.3">
@@ -5029,13 +5050,13 @@
         <v>259</v>
       </c>
       <c r="B260" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C260" t="s">
-        <v>119</v>
+        <v>214</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="261" spans="1:4" x14ac:dyDescent="0.3">
@@ -5043,13 +5064,13 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C261" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.3">
@@ -5057,13 +5078,13 @@
         <v>261</v>
       </c>
       <c r="B262" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C262" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.3">
@@ -5071,13 +5092,13 @@
         <v>262</v>
       </c>
       <c r="B263" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C263" t="s">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="264" spans="1:4" x14ac:dyDescent="0.3">
@@ -5085,13 +5106,13 @@
         <v>263</v>
       </c>
       <c r="B264" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C264" t="s">
-        <v>123</v>
+        <v>16</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.3">
@@ -5099,13 +5120,13 @@
         <v>264</v>
       </c>
       <c r="B265" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C265" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.3">
@@ -5113,13 +5134,13 @@
         <v>265</v>
       </c>
       <c r="B266" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C266" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.3">
@@ -5127,13 +5148,13 @@
         <v>266</v>
       </c>
       <c r="B267" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C267" t="s">
-        <v>226</v>
+        <v>131</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.3">
@@ -5141,13 +5162,13 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C268" t="s">
-        <v>227</v>
+        <v>117</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.3">
@@ -5155,13 +5176,13 @@
         <v>268</v>
       </c>
       <c r="B269" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C269" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.3">
@@ -5169,13 +5190,13 @@
         <v>269</v>
       </c>
       <c r="B270" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C270" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.3">
@@ -5183,13 +5204,13 @@
         <v>270</v>
       </c>
       <c r="B271" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C271" t="s">
-        <v>127</v>
+        <v>221</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.3">
@@ -5197,13 +5218,13 @@
         <v>271</v>
       </c>
       <c r="B272" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C272" t="s">
-        <v>229</v>
+        <v>121</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.3">
@@ -5211,13 +5232,13 @@
         <v>272</v>
       </c>
       <c r="B273" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C273" t="s">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.3">
@@ -5225,13 +5246,13 @@
         <v>273</v>
       </c>
       <c r="B274" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C274" t="s">
-        <v>77</v>
+        <v>223</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.3">
@@ -5239,13 +5260,13 @@
         <v>274</v>
       </c>
       <c r="B275" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C275" t="s">
-        <v>91</v>
+        <v>224</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.3">
@@ -5253,13 +5274,13 @@
         <v>275</v>
       </c>
       <c r="B276" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C276" t="s">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.3">
@@ -5267,13 +5288,13 @@
         <v>276</v>
       </c>
       <c r="B277" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C277" t="s">
-        <v>75</v>
+        <v>226</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.3">
@@ -5281,13 +5302,13 @@
         <v>277</v>
       </c>
       <c r="B278" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C278" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.3">
@@ -5295,13 +5316,13 @@
         <v>278</v>
       </c>
       <c r="B279" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C279" t="s">
-        <v>230</v>
+        <v>125</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.3">
@@ -5309,13 +5330,13 @@
         <v>279</v>
       </c>
       <c r="B280" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C280" t="s">
-        <v>102</v>
+        <v>227</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.3">
@@ -5323,13 +5344,13 @@
         <v>280</v>
       </c>
       <c r="B281" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C281" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.3">
@@ -5337,13 +5358,13 @@
         <v>281</v>
       </c>
       <c r="B282" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C282" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="283" spans="1:4" x14ac:dyDescent="0.3">
@@ -5351,13 +5372,13 @@
         <v>282</v>
       </c>
       <c r="B283" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C283" t="s">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.3">
@@ -5365,13 +5386,13 @@
         <v>283</v>
       </c>
       <c r="B284" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C284" t="s">
-        <v>231</v>
+        <v>90</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.3">
@@ -5379,13 +5400,13 @@
         <v>284</v>
       </c>
       <c r="B285" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C285" t="s">
-        <v>149</v>
+        <v>73</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.3">
@@ -5393,13 +5414,13 @@
         <v>285</v>
       </c>
       <c r="B286" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C286" t="s">
-        <v>232</v>
+        <v>165</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.3">
@@ -5407,13 +5428,13 @@
         <v>286</v>
       </c>
       <c r="B287" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C287" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.3">
@@ -5421,13 +5442,13 @@
         <v>287</v>
       </c>
       <c r="B288" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C288" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.3">
@@ -5435,13 +5456,13 @@
         <v>288</v>
       </c>
       <c r="B289" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C289" t="s">
-        <v>118</v>
+        <v>79</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="290" spans="1:4" x14ac:dyDescent="0.3">
@@ -5449,13 +5470,13 @@
         <v>289</v>
       </c>
       <c r="B290" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C290" t="s">
-        <v>156</v>
+        <v>99</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="291" spans="1:4" x14ac:dyDescent="0.3">
@@ -5463,13 +5484,13 @@
         <v>290</v>
       </c>
       <c r="B291" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C291" t="s">
-        <v>174</v>
+        <v>47</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.3">
@@ -5477,13 +5498,13 @@
         <v>291</v>
       </c>
       <c r="B292" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C292" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.3">
@@ -5491,13 +5512,13 @@
         <v>292</v>
       </c>
       <c r="B293" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C293" t="s">
-        <v>235</v>
+        <v>147</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.3">
@@ -5505,13 +5526,13 @@
         <v>293</v>
       </c>
       <c r="B294" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C294" t="s">
-        <v>49</v>
+        <v>230</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.3">
@@ -5519,13 +5540,13 @@
         <v>294</v>
       </c>
       <c r="B295" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C295" t="s">
-        <v>157</v>
+        <v>231</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.3">
@@ -5533,13 +5554,13 @@
         <v>295</v>
       </c>
       <c r="B296" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C296" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.3">
@@ -5547,13 +5568,13 @@
         <v>296</v>
       </c>
       <c r="B297" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C297" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.3">
@@ -5561,13 +5582,13 @@
         <v>297</v>
       </c>
       <c r="B298" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C298" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.3">
@@ -5575,13 +5596,13 @@
         <v>298</v>
       </c>
       <c r="B299" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C299" t="s">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.3">
@@ -5589,13 +5610,13 @@
         <v>299</v>
       </c>
       <c r="B300" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C300" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.3">
@@ -5603,13 +5624,13 @@
         <v>300</v>
       </c>
       <c r="B301" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C301" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.3">
@@ -5617,13 +5638,13 @@
         <v>301</v>
       </c>
       <c r="B302" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C302" t="s">
-        <v>239</v>
+        <v>47</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.3">
@@ -5631,13 +5652,13 @@
         <v>302</v>
       </c>
       <c r="B303" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C303" t="s">
-        <v>240</v>
+        <v>155</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.3">
@@ -5645,13 +5666,13 @@
         <v>303</v>
       </c>
       <c r="B304" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C304" t="s">
-        <v>241</v>
+        <v>116</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.3">
@@ -5659,13 +5680,13 @@
         <v>304</v>
       </c>
       <c r="B305" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C305" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.3">
@@ -5673,13 +5694,13 @@
         <v>305</v>
       </c>
       <c r="B306" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C306" t="s">
-        <v>167</v>
+        <v>104</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.3">
@@ -5687,13 +5708,13 @@
         <v>306</v>
       </c>
       <c r="B307" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C307" t="s">
-        <v>169</v>
+        <v>234</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.3">
@@ -5701,13 +5722,13 @@
         <v>307</v>
       </c>
       <c r="B308" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C308" t="s">
-        <v>71</v>
+        <v>235</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.3">
@@ -5715,13 +5736,13 @@
         <v>308</v>
       </c>
       <c r="B309" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C309" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="310" spans="1:4" x14ac:dyDescent="0.3">
@@ -5729,13 +5750,13 @@
         <v>309</v>
       </c>
       <c r="B310" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C310" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="311" spans="1:4" x14ac:dyDescent="0.3">
@@ -5743,13 +5764,13 @@
         <v>310</v>
       </c>
       <c r="B311" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C311" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="312" spans="1:4" x14ac:dyDescent="0.3">
@@ -5757,13 +5778,13 @@
         <v>311</v>
       </c>
       <c r="B312" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="C312" t="s">
-        <v>45</v>
+        <v>239</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="313" spans="1:4" x14ac:dyDescent="0.3">
@@ -5771,13 +5792,13 @@
         <v>312</v>
       </c>
       <c r="B313" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="C313" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="314" spans="1:4" x14ac:dyDescent="0.3">
@@ -5785,13 +5806,13 @@
         <v>313</v>
       </c>
       <c r="B314" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="C314" t="s">
-        <v>247</v>
+        <v>165</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="315" spans="1:4" x14ac:dyDescent="0.3">
@@ -5799,13 +5820,13 @@
         <v>314</v>
       </c>
       <c r="B315" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="C315" t="s">
-        <v>248</v>
+        <v>167</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="316" spans="1:4" x14ac:dyDescent="0.3">
@@ -5813,13 +5834,13 @@
         <v>315</v>
       </c>
       <c r="B316" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="C316" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="317" spans="1:4" x14ac:dyDescent="0.3">
@@ -5827,13 +5848,13 @@
         <v>316</v>
       </c>
       <c r="B317" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="C317" t="s">
-        <v>56</v>
+        <v>241</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="318" spans="1:4" x14ac:dyDescent="0.3">
@@ -5841,13 +5862,13 @@
         <v>317</v>
       </c>
       <c r="B318" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="C318" t="s">
-        <v>44</v>
+        <v>242</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="319" spans="1:4" x14ac:dyDescent="0.3">
@@ -5855,13 +5876,13 @@
         <v>318</v>
       </c>
       <c r="B319" t="s">
-        <v>45</v>
+        <v>206</v>
       </c>
       <c r="C319" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="320" spans="1:4" x14ac:dyDescent="0.3">
@@ -5869,13 +5890,13 @@
         <v>319</v>
       </c>
       <c r="B320" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C320" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="321" spans="1:4" x14ac:dyDescent="0.3">
@@ -5883,13 +5904,13 @@
         <v>320</v>
       </c>
       <c r="B321" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C321" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="322" spans="1:4" x14ac:dyDescent="0.3">
@@ -5897,13 +5918,13 @@
         <v>321</v>
       </c>
       <c r="B322" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C322" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="323" spans="1:4" x14ac:dyDescent="0.3">
@@ -5911,13 +5932,13 @@
         <v>322</v>
       </c>
       <c r="B323" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C323" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="324" spans="1:4" x14ac:dyDescent="0.3">
@@ -5925,13 +5946,13 @@
         <v>323</v>
       </c>
       <c r="B324" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C324" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="325" spans="1:4" x14ac:dyDescent="0.3">
@@ -5939,13 +5960,13 @@
         <v>324</v>
       </c>
       <c r="B325" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C325" t="s">
-        <v>253</v>
+        <v>54</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="326" spans="1:4" x14ac:dyDescent="0.3">
@@ -5953,13 +5974,13 @@
         <v>325</v>
       </c>
       <c r="B326" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C326" t="s">
-        <v>115</v>
+        <v>42</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="327" spans="1:4" x14ac:dyDescent="0.3">
@@ -5967,13 +5988,13 @@
         <v>326</v>
       </c>
       <c r="B327" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C327" t="s">
-        <v>81</v>
+        <v>247</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="328" spans="1:4" x14ac:dyDescent="0.3">
@@ -5981,13 +6002,13 @@
         <v>327</v>
       </c>
       <c r="B328" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C328" t="s">
-        <v>54</v>
+        <v>69</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="329" spans="1:4" x14ac:dyDescent="0.3">
@@ -5995,13 +6016,13 @@
         <v>328</v>
       </c>
       <c r="B329" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C329" t="s">
-        <v>106</v>
+        <v>248</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="330" spans="1:4" x14ac:dyDescent="0.3">
@@ -6009,13 +6030,13 @@
         <v>329</v>
       </c>
       <c r="B330" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C330" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D330" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="331" spans="1:4" x14ac:dyDescent="0.3">
@@ -6023,13 +6044,13 @@
         <v>330</v>
       </c>
       <c r="B331" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C331" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="332" spans="1:4" x14ac:dyDescent="0.3">
@@ -6037,13 +6058,13 @@
         <v>331</v>
       </c>
       <c r="B332" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C332" t="s">
-        <v>256</v>
+        <v>47</v>
       </c>
       <c r="D332" s="2" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="333" spans="1:4" x14ac:dyDescent="0.3">
@@ -6051,13 +6072,13 @@
         <v>332</v>
       </c>
       <c r="B333" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="C333" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="334" spans="1:4" x14ac:dyDescent="0.3">
@@ -6065,13 +6086,13 @@
         <v>333</v>
       </c>
       <c r="B334" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="C334" t="s">
-        <v>258</v>
+        <v>113</v>
       </c>
       <c r="D334" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="335" spans="1:4" x14ac:dyDescent="0.3">
@@ -6079,13 +6100,13 @@
         <v>334</v>
       </c>
       <c r="B335" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="C335" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="D335" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="336" spans="1:4" x14ac:dyDescent="0.3">
@@ -6093,13 +6114,13 @@
         <v>335</v>
       </c>
       <c r="B336" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="C336" t="s">
-        <v>156</v>
+        <v>52</v>
       </c>
       <c r="D336" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="337" spans="1:4" x14ac:dyDescent="0.3">
@@ -6107,13 +6128,13 @@
         <v>336</v>
       </c>
       <c r="B337" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="C337" t="s">
-        <v>49</v>
+        <v>104</v>
       </c>
       <c r="D337" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.3">
@@ -6121,13 +6142,13 @@
         <v>337</v>
       </c>
       <c r="B338" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="C338" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="D338" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.3">
@@ -6135,13 +6156,13 @@
         <v>338</v>
       </c>
       <c r="B339" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="C339" t="s">
-        <v>106</v>
+        <v>253</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.3">
@@ -6149,13 +6170,13 @@
         <v>339</v>
       </c>
       <c r="B340" t="s">
-        <v>209</v>
+        <v>43</v>
       </c>
       <c r="C340" t="s">
-        <v>165</v>
+        <v>254</v>
       </c>
       <c r="D340" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="341" spans="1:4" x14ac:dyDescent="0.3">
@@ -6163,13 +6184,13 @@
         <v>340</v>
       </c>
       <c r="B341" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C341" t="s">
-        <v>118</v>
+        <v>255</v>
       </c>
       <c r="D341" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.3">
@@ -6177,13 +6198,13 @@
         <v>341</v>
       </c>
       <c r="B342" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C342" t="s">
-        <v>173</v>
+        <v>256</v>
       </c>
       <c r="D342" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.3">
@@ -6191,13 +6212,13 @@
         <v>342</v>
       </c>
       <c r="B343" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C343" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D343" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.3">
@@ -6205,13 +6226,13 @@
         <v>343</v>
       </c>
       <c r="B344" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C344" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D344" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.3">
@@ -6219,13 +6240,13 @@
         <v>344</v>
       </c>
       <c r="B345" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C345" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D345" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.3">
@@ -6233,13 +6254,13 @@
         <v>345</v>
       </c>
       <c r="B346" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C346" t="s">
-        <v>259</v>
+        <v>162</v>
       </c>
       <c r="D346" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.3">
@@ -6247,13 +6268,13 @@
         <v>346</v>
       </c>
       <c r="B347" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C347" t="s">
-        <v>186</v>
+        <v>104</v>
       </c>
       <c r="D347" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.3">
@@ -6261,13 +6282,13 @@
         <v>347</v>
       </c>
       <c r="B348" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C348" t="s">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="D348" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.3">
@@ -6275,13 +6296,13 @@
         <v>348</v>
       </c>
       <c r="B349" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C349" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
       <c r="D349" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.3">
@@ -6289,13 +6310,13 @@
         <v>349</v>
       </c>
       <c r="B350" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C350" t="s">
-        <v>18</v>
+        <v>171</v>
       </c>
       <c r="D350" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.3">
@@ -6303,13 +6324,13 @@
         <v>350</v>
       </c>
       <c r="B351" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C351" t="s">
-        <v>243</v>
+        <v>136</v>
       </c>
       <c r="D351" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.3">
@@ -6317,13 +6338,13 @@
         <v>351</v>
       </c>
       <c r="B352" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C352" t="s">
-        <v>260</v>
+        <v>168</v>
       </c>
       <c r="D352" s="2" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="353" spans="1:4" x14ac:dyDescent="0.3">
@@ -6331,13 +6352,13 @@
         <v>352</v>
       </c>
       <c r="B353" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C353" t="s">
-        <v>118</v>
+        <v>69</v>
       </c>
       <c r="D353" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="354" spans="1:4" x14ac:dyDescent="0.3">
@@ -6345,13 +6366,13 @@
         <v>353</v>
       </c>
       <c r="B354" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C354" t="s">
-        <v>156</v>
+        <v>257</v>
       </c>
       <c r="D354" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="355" spans="1:4" x14ac:dyDescent="0.3">
@@ -6359,13 +6380,13 @@
         <v>354</v>
       </c>
       <c r="B355" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C355" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="D355" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="356" spans="1:4" x14ac:dyDescent="0.3">
@@ -6373,13 +6394,13 @@
         <v>355</v>
       </c>
       <c r="B356" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C356" t="s">
-        <v>261</v>
+        <v>172</v>
       </c>
       <c r="D356" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="357" spans="1:4" x14ac:dyDescent="0.3">
@@ -6387,13 +6408,13 @@
         <v>356</v>
       </c>
       <c r="B357" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C357" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="D357" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="358" spans="1:4" x14ac:dyDescent="0.3">
@@ -6401,13 +6422,13 @@
         <v>357</v>
       </c>
       <c r="B358" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C358" t="s">
-        <v>121</v>
+        <v>16</v>
       </c>
       <c r="D358" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="359" spans="1:4" x14ac:dyDescent="0.3">
@@ -6415,13 +6436,13 @@
         <v>358</v>
       </c>
       <c r="B359" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C359" t="s">
-        <v>127</v>
+        <v>241</v>
       </c>
       <c r="D359" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="360" spans="1:4" x14ac:dyDescent="0.3">
@@ -6429,13 +6450,13 @@
         <v>359</v>
       </c>
       <c r="B360" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C360" t="s">
-        <v>18</v>
+        <v>258</v>
       </c>
       <c r="D360" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="361" spans="1:4" x14ac:dyDescent="0.3">
@@ -6443,13 +6464,13 @@
         <v>360</v>
       </c>
       <c r="B361" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C361" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="D361" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="362" spans="1:4" x14ac:dyDescent="0.3">
@@ -6457,13 +6478,13 @@
         <v>361</v>
       </c>
       <c r="B362" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C362" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
       <c r="D362" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="363" spans="1:4" x14ac:dyDescent="0.3">
@@ -6471,13 +6492,13 @@
         <v>362</v>
       </c>
       <c r="B363" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C363" t="s">
-        <v>262</v>
+        <v>155</v>
       </c>
       <c r="D363" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="364" spans="1:4" x14ac:dyDescent="0.3">
@@ -6485,13 +6506,13 @@
         <v>363</v>
       </c>
       <c r="B364" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C364" t="s">
-        <v>182</v>
+        <v>259</v>
       </c>
       <c r="D364" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="365" spans="1:4" x14ac:dyDescent="0.3">
@@ -6499,13 +6520,13 @@
         <v>364</v>
       </c>
       <c r="B365" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C365" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="D365" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.3">
@@ -6513,13 +6534,13 @@
         <v>365</v>
       </c>
       <c r="B366" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C366" t="s">
-        <v>263</v>
+        <v>119</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.3">
@@ -6527,13 +6548,13 @@
         <v>366</v>
       </c>
       <c r="B367" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C367" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="D367" s="2" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.3">
@@ -6541,13 +6562,13 @@
         <v>367</v>
       </c>
       <c r="B368" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C368" t="s">
-        <v>264</v>
+        <v>16</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.3">
@@ -6555,13 +6576,13 @@
         <v>368</v>
       </c>
       <c r="B369" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C369" t="s">
-        <v>265</v>
+        <v>137</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.3">
@@ -6569,13 +6590,13 @@
         <v>369</v>
       </c>
       <c r="B370" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C370" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="D370" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.3">
@@ -6583,13 +6604,13 @@
         <v>370</v>
       </c>
       <c r="B371" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C371" t="s">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.3">
@@ -6597,13 +6618,13 @@
         <v>371</v>
       </c>
       <c r="B372" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C372" t="s">
-        <v>266</v>
+        <v>180</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="373" spans="1:4" x14ac:dyDescent="0.3">
@@ -6611,13 +6632,13 @@
         <v>372</v>
       </c>
       <c r="B373" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C373" t="s">
-        <v>267</v>
+        <v>69</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="374" spans="1:4" x14ac:dyDescent="0.3">
@@ -6625,13 +6646,13 @@
         <v>373</v>
       </c>
       <c r="B374" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C374" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="375" spans="1:4" x14ac:dyDescent="0.3">
@@ -6639,13 +6660,13 @@
         <v>374</v>
       </c>
       <c r="B375" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C375" t="s">
-        <v>269</v>
+        <v>163</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="376" spans="1:4" x14ac:dyDescent="0.3">
@@ -6653,13 +6674,13 @@
         <v>375</v>
       </c>
       <c r="B376" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C376" t="s">
-        <v>150</v>
+        <v>262</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="377" spans="1:4" x14ac:dyDescent="0.3">
@@ -6667,13 +6688,13 @@
         <v>376</v>
       </c>
       <c r="B377" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C377" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="378" spans="1:4" x14ac:dyDescent="0.3">
@@ -6681,13 +6702,13 @@
         <v>377</v>
       </c>
       <c r="B378" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C378" t="s">
-        <v>270</v>
+        <v>169</v>
       </c>
       <c r="D378" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="379" spans="1:4" x14ac:dyDescent="0.3">
@@ -6695,13 +6716,13 @@
         <v>378</v>
       </c>
       <c r="B379" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C379" t="s">
-        <v>71</v>
+        <v>137</v>
       </c>
       <c r="D379" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.3">
@@ -6709,13 +6730,13 @@
         <v>379</v>
       </c>
       <c r="B380" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C380" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="D380" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="381" spans="1:4" x14ac:dyDescent="0.3">
@@ -6723,13 +6744,13 @@
         <v>380</v>
       </c>
       <c r="B381" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C381" t="s">
-        <v>196</v>
+        <v>265</v>
       </c>
       <c r="D381" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="382" spans="1:4" x14ac:dyDescent="0.3">
@@ -6737,13 +6758,13 @@
         <v>381</v>
       </c>
       <c r="B382" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C382" t="s">
-        <v>135</v>
+        <v>266</v>
       </c>
       <c r="D382" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="383" spans="1:4" x14ac:dyDescent="0.3">
@@ -6751,13 +6772,13 @@
         <v>382</v>
       </c>
       <c r="B383" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C383" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
       <c r="D383" s="2" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="384" spans="1:4" x14ac:dyDescent="0.3">
@@ -6765,13 +6786,13 @@
         <v>383</v>
       </c>
       <c r="B384" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C384" t="s">
-        <v>272</v>
+        <v>148</v>
       </c>
       <c r="D384" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="385" spans="1:4" x14ac:dyDescent="0.3">
@@ -6779,13 +6800,13 @@
         <v>384</v>
       </c>
       <c r="B385" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C385" t="s">
-        <v>121</v>
+        <v>203</v>
       </c>
       <c r="D385" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="386" spans="1:4" x14ac:dyDescent="0.3">
@@ -6793,13 +6814,13 @@
         <v>385</v>
       </c>
       <c r="B386" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C386" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="D386" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="387" spans="1:4" x14ac:dyDescent="0.3">
@@ -6807,13 +6828,13 @@
         <v>386</v>
       </c>
       <c r="B387" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C387" t="s">
-        <v>274</v>
+        <v>69</v>
       </c>
       <c r="D387" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.3">
@@ -6821,13 +6842,13 @@
         <v>387</v>
       </c>
       <c r="B388" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C388" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.3">
@@ -6835,13 +6856,13 @@
         <v>388</v>
       </c>
       <c r="B389" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C389" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.3">
@@ -6849,13 +6870,13 @@
         <v>389</v>
       </c>
       <c r="B390" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C390" t="s">
-        <v>275</v>
+        <v>133</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.3">
@@ -6863,13 +6884,13 @@
         <v>390</v>
       </c>
       <c r="B391" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C391" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.3">
@@ -6877,13 +6898,13 @@
         <v>391</v>
       </c>
       <c r="B392" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C392" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.3">
@@ -6891,13 +6912,13 @@
         <v>392</v>
       </c>
       <c r="B393" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C393" t="s">
-        <v>150</v>
+        <v>119</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.3">
@@ -6905,13 +6926,13 @@
         <v>393</v>
       </c>
       <c r="B394" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C394" t="s">
-        <v>197</v>
+        <v>271</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.3">
@@ -6919,13 +6940,13 @@
         <v>394</v>
       </c>
       <c r="B395" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C395" t="s">
-        <v>139</v>
+        <v>272</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.3">
@@ -6933,13 +6954,13 @@
         <v>395</v>
       </c>
       <c r="B396" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C396" t="s">
-        <v>278</v>
+        <v>217</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.3">
@@ -6947,13 +6968,13 @@
         <v>396</v>
       </c>
       <c r="B397" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C397" t="s">
-        <v>279</v>
+        <v>154</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.3">
@@ -6961,13 +6982,13 @@
         <v>397</v>
       </c>
       <c r="B398" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C398" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.3">
@@ -6975,13 +6996,13 @@
         <v>398</v>
       </c>
       <c r="B399" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C399" t="s">
-        <v>177</v>
+        <v>274</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.3">
@@ -6989,13 +7010,13 @@
         <v>399</v>
       </c>
       <c r="B400" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C400" t="s">
-        <v>49</v>
+        <v>275</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.3">
@@ -7003,13 +7024,13 @@
         <v>400</v>
       </c>
       <c r="B401" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C401" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.3">
@@ -7017,13 +7038,13 @@
         <v>401</v>
       </c>
       <c r="B402" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C402" t="s">
-        <v>281</v>
+        <v>195</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.3">
@@ -7031,13 +7052,13 @@
         <v>402</v>
       </c>
       <c r="B403" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C403" t="s">
-        <v>282</v>
+        <v>137</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.3">
@@ -7045,13 +7066,13 @@
         <v>403</v>
       </c>
       <c r="B404" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C404" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.3">
@@ -7059,13 +7080,13 @@
         <v>404</v>
       </c>
       <c r="B405" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C405" t="s">
-        <v>179</v>
+        <v>277</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.3">
@@ -7073,13 +7094,13 @@
         <v>405</v>
       </c>
       <c r="B406" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C406" t="s">
-        <v>115</v>
+        <v>278</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.3">
@@ -7087,13 +7108,13 @@
         <v>406</v>
       </c>
       <c r="B407" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C407" t="s">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.3">
@@ -7101,13 +7122,13 @@
         <v>407</v>
       </c>
       <c r="B408" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C408" t="s">
-        <v>180</v>
+        <v>47</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.3">
@@ -7115,13 +7136,13 @@
         <v>408</v>
       </c>
       <c r="B409" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C409" t="s">
-        <v>156</v>
+        <v>104</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.3">
@@ -7129,13 +7150,13 @@
         <v>409</v>
       </c>
       <c r="B410" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C410" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.3">
@@ -7143,13 +7164,13 @@
         <v>410</v>
       </c>
       <c r="B411" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C411" t="s">
-        <v>118</v>
+        <v>280</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.3">
@@ -7157,13 +7178,13 @@
         <v>411</v>
       </c>
       <c r="B412" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C412" t="s">
-        <v>89</v>
+        <v>281</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.3">
@@ -7171,13 +7192,13 @@
         <v>412</v>
       </c>
       <c r="B413" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C413" t="s">
-        <v>30</v>
+        <v>177</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.3">
@@ -7185,13 +7206,13 @@
         <v>413</v>
       </c>
       <c r="B414" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C414" t="s">
-        <v>284</v>
+        <v>113</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.3">
@@ -7199,13 +7220,13 @@
         <v>414</v>
       </c>
       <c r="B415" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C415" t="s">
-        <v>285</v>
+        <v>16</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.3">
@@ -7213,13 +7234,13 @@
         <v>415</v>
       </c>
       <c r="B416" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C416" t="s">
-        <v>286</v>
+        <v>178</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.3">
@@ -7227,13 +7248,13 @@
         <v>416</v>
       </c>
       <c r="B417" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C417" t="s">
-        <v>287</v>
+        <v>154</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.3">
@@ -7241,13 +7262,13 @@
         <v>417</v>
       </c>
       <c r="B418" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C418" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.3">
@@ -7255,13 +7276,13 @@
         <v>418</v>
       </c>
       <c r="B419" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C419" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.3">
@@ -7269,13 +7290,13 @@
         <v>419</v>
       </c>
       <c r="B420" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C420" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.3">
@@ -7283,13 +7304,13 @@
         <v>420</v>
       </c>
       <c r="B421" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C421" t="s">
-        <v>132</v>
+        <v>28</v>
       </c>
       <c r="D421" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.3">
@@ -7297,13 +7318,13 @@
         <v>421</v>
       </c>
       <c r="B422" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C422" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.3">
@@ -7311,13 +7332,13 @@
         <v>422</v>
       </c>
       <c r="B423" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C423" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.3">
@@ -7325,13 +7346,13 @@
         <v>423</v>
       </c>
       <c r="B424" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C424" t="s">
-        <v>106</v>
+        <v>284</v>
       </c>
       <c r="D424" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.3">
@@ -7339,13 +7360,13 @@
         <v>424</v>
       </c>
       <c r="B425" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C425" t="s">
-        <v>31</v>
+        <v>285</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.3">
@@ -7353,13 +7374,13 @@
         <v>425</v>
       </c>
       <c r="B426" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C426" t="s">
-        <v>290</v>
+        <v>16</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.3">
@@ -7367,13 +7388,13 @@
         <v>426</v>
       </c>
       <c r="B427" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C427" t="s">
-        <v>291</v>
+        <v>127</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.3">
@@ -7381,13 +7402,13 @@
         <v>427</v>
       </c>
       <c r="B428" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C428" t="s">
-        <v>292</v>
+        <v>31</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
@@ -7395,13 +7416,13 @@
         <v>428</v>
       </c>
       <c r="B429" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C429" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
@@ -7409,13 +7430,13 @@
         <v>429</v>
       </c>
       <c r="B430" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C430" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
@@ -7423,13 +7444,13 @@
         <v>430</v>
       </c>
       <c r="B431" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C431" t="s">
-        <v>73</v>
+        <v>287</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
@@ -7437,13 +7458,13 @@
         <v>431</v>
       </c>
       <c r="B432" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C432" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="D432" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
@@ -7451,13 +7472,13 @@
         <v>432</v>
       </c>
       <c r="B433" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C433" t="s">
-        <v>294</v>
+        <v>29</v>
       </c>
       <c r="D433" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
@@ -7465,13 +7486,13 @@
         <v>433</v>
       </c>
       <c r="B434" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C434" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="D434" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
@@ -7479,13 +7500,13 @@
         <v>434</v>
       </c>
       <c r="B435" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C435" t="s">
-        <v>48</v>
+        <v>289</v>
       </c>
       <c r="D435" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
@@ -7493,13 +7514,13 @@
         <v>435</v>
       </c>
       <c r="B436" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C436" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="D436" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
@@ -7507,13 +7528,13 @@
         <v>436</v>
       </c>
       <c r="B437" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C437" t="s">
-        <v>86</v>
+        <v>38</v>
       </c>
       <c r="D437" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
@@ -7521,13 +7542,13 @@
         <v>437</v>
       </c>
       <c r="B438" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C438" t="s">
-        <v>196</v>
+        <v>291</v>
       </c>
       <c r="D438" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
@@ -7535,13 +7556,135 @@
         <v>438</v>
       </c>
       <c r="B439" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C439" t="s">
-        <v>297</v>
+        <v>71</v>
       </c>
       <c r="D439" s="2" t="s">
-        <v>306</v>
+        <v>302</v>
+      </c>
+    </row>
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A440">
+        <v>439</v>
+      </c>
+      <c r="B440" t="s">
+        <v>213</v>
+      </c>
+      <c r="C440" t="s">
+        <v>37</v>
+      </c>
+      <c r="D440" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A441">
+        <v>440</v>
+      </c>
+      <c r="B441" t="s">
+        <v>213</v>
+      </c>
+      <c r="C441" t="s">
+        <v>292</v>
+      </c>
+      <c r="D441" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A442">
+        <v>441</v>
+      </c>
+      <c r="B442" t="s">
+        <v>213</v>
+      </c>
+      <c r="C442" t="s">
+        <v>293</v>
+      </c>
+      <c r="D442" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A443">
+        <v>442</v>
+      </c>
+      <c r="B443" t="s">
+        <v>213</v>
+      </c>
+      <c r="C443" t="s">
+        <v>46</v>
+      </c>
+      <c r="D443" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A444">
+        <v>443</v>
+      </c>
+      <c r="B444" t="s">
+        <v>213</v>
+      </c>
+      <c r="C444" t="s">
+        <v>294</v>
+      </c>
+      <c r="D444" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A445">
+        <v>444</v>
+      </c>
+      <c r="B445" t="s">
+        <v>213</v>
+      </c>
+      <c r="C445" t="s">
+        <v>84</v>
+      </c>
+      <c r="D445" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A446">
+        <v>445</v>
+      </c>
+      <c r="B446" t="s">
+        <v>213</v>
+      </c>
+      <c r="C446" t="s">
+        <v>194</v>
+      </c>
+      <c r="D446" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A447">
+        <v>446</v>
+      </c>
+      <c r="B447" t="s">
+        <v>213</v>
+      </c>
+      <c r="C447" t="s">
+        <v>295</v>
+      </c>
+      <c r="D447" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A448">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A449">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -7555,30 +7698,30 @@
     <hyperlink ref="D65" r:id="rId7" xr:uid="{D99871A8-D53F-44F6-87DF-B42AAFFDBB13}"/>
     <hyperlink ref="D66:D85" r:id="rId8" display="https://mitaoe.ac.in/assets/images/club/MITAoE-Chefs.jpg" xr:uid="{AC27FB9D-155D-4789-AE58-8C985DFEBEC8}"/>
     <hyperlink ref="D107" r:id="rId9" xr:uid="{5180C6B9-1FC0-4BC6-A04E-2A412B062910}"/>
-    <hyperlink ref="D427" r:id="rId10" xr:uid="{DBA5877F-EB73-4314-848D-9649A5572784}"/>
-    <hyperlink ref="D428:D439" r:id="rId11" display="https://mitaoe.ac.in/assets/images/club/exesmathsclub.jpg" xr:uid="{B9B3D784-DDD0-4915-B452-7F970C8D1950}"/>
-    <hyperlink ref="D413" r:id="rId12" xr:uid="{5FED614B-73B3-429E-84A0-5A460ADE9456}"/>
-    <hyperlink ref="D414:D426" r:id="rId13" display="https://mitaoe.ac.in/assets/images/club/shutterbug.png" xr:uid="{B25C69F6-11B2-41DE-B927-8ED983CDC7D2}"/>
-    <hyperlink ref="D399" r:id="rId14" xr:uid="{ADB71CA6-07D4-4FF5-9825-29C140F87C45}"/>
-    <hyperlink ref="D400:D412" r:id="rId15" display="https://mitaoe.ac.in/assets/images/club/srukan.jpg" xr:uid="{D27CD0C9-7BA0-4A07-8646-7F333FC49D10}"/>
-    <hyperlink ref="D385:D398" r:id="rId16" display="https://mitaoe.ac.in/assets/images/club/mitmasterblaster.png" xr:uid="{4BF18831-7582-46ED-BBC7-2E6EBAFE2E3D}"/>
-    <hyperlink ref="D384" r:id="rId17" xr:uid="{0A0C0D54-A541-42DE-ABC5-41CC564ABEA8}"/>
-    <hyperlink ref="D368" r:id="rId18" xr:uid="{DA7DC7AC-3EA5-4F81-8E2F-EC3BB56ED976}"/>
-    <hyperlink ref="D369:D383" r:id="rId19" display="https://mitaoe.ac.in/assets/images/club/eparatua-mins.png" xr:uid="{5C6F7221-B8EE-49DF-8C7B-8592B640C67B}"/>
-    <hyperlink ref="D353" r:id="rId20" xr:uid="{7228DFB9-EF1E-4531-BB6D-C490C1B07968}"/>
-    <hyperlink ref="D354:D367" r:id="rId21" display="https://mitaoe.ac.in/assets/images/club/spark-club.jpg" xr:uid="{1AD4F3A9-55FA-4D3F-A306-9DA37E7A3097}"/>
-    <hyperlink ref="D333" r:id="rId22" xr:uid="{BD881FDC-420A-43CB-B6AE-142F868A4633}"/>
-    <hyperlink ref="D334:D352" r:id="rId23" display="https://rotarypunemetro.com/wp-content/uploads/Rcpm-23-24-300x286.jpg" xr:uid="{3DD92583-4AF6-4538-8BF9-6855034A0C45}"/>
-    <hyperlink ref="D312" r:id="rId24" xr:uid="{45FFF30E-A5B7-496C-B426-07D65A261F8B}"/>
-    <hyperlink ref="D313:D332" r:id="rId25" display="https://mitaoe.ac.in/assets/images/club/roboticsclub.png" xr:uid="{7680A8C0-D024-440F-8863-D430BFE435DF}"/>
-    <hyperlink ref="D292" r:id="rId26" xr:uid="{470A553F-07A6-4F2A-932B-9B1ABFDA06EB}"/>
-    <hyperlink ref="D293:D311" r:id="rId27" display="https://mitaoe.ac.in/assets/images/club/prakruti.png" xr:uid="{945B2129-1045-435F-9195-4B77EC3652EE}"/>
-    <hyperlink ref="D272" r:id="rId28" xr:uid="{BD8C6B91-EB5F-4A17-8A92-20CB0A313531}"/>
-    <hyperlink ref="D273:D291" r:id="rId29" display="https://mitaoe.ac.in/assets/images/club/googlestudentandfirefox.png" xr:uid="{A5655624-82DB-492A-9B0D-7C0166650F66}"/>
-    <hyperlink ref="D252" r:id="rId30" xr:uid="{22B1E1BE-35A3-404D-9EFD-17D01F074EB6}"/>
-    <hyperlink ref="D253:D271" r:id="rId31" display="https://mitaoe.ac.in/assets/images/club/image-13.png" xr:uid="{9C48E31C-06CE-449D-BD1A-CAD49D2ED475}"/>
-    <hyperlink ref="D231" r:id="rId32" xr:uid="{15F12499-DB0B-4D4F-9A60-1627E680B565}"/>
-    <hyperlink ref="D232:D251" r:id="rId33" display="https://mitaoe.ac.in/assets/images/club/literaryclub.png" xr:uid="{A0EFF82E-43D7-45ED-A387-9590CD8088A9}"/>
+    <hyperlink ref="D435" r:id="rId10" xr:uid="{DBA5877F-EB73-4314-848D-9649A5572784}"/>
+    <hyperlink ref="D436:D447" r:id="rId11" display="https://mitaoe.ac.in/assets/images/club/exesmathsclub.jpg" xr:uid="{B9B3D784-DDD0-4915-B452-7F970C8D1950}"/>
+    <hyperlink ref="D421" r:id="rId12" xr:uid="{5FED614B-73B3-429E-84A0-5A460ADE9456}"/>
+    <hyperlink ref="D422:D434" r:id="rId13" display="https://mitaoe.ac.in/assets/images/club/shutterbug.png" xr:uid="{B25C69F6-11B2-41DE-B927-8ED983CDC7D2}"/>
+    <hyperlink ref="D407" r:id="rId14" xr:uid="{ADB71CA6-07D4-4FF5-9825-29C140F87C45}"/>
+    <hyperlink ref="D408:D420" r:id="rId15" display="https://mitaoe.ac.in/assets/images/club/srukan.jpg" xr:uid="{D27CD0C9-7BA0-4A07-8646-7F333FC49D10}"/>
+    <hyperlink ref="D393:D406" r:id="rId16" display="https://mitaoe.ac.in/assets/images/club/mitmasterblaster.png" xr:uid="{4BF18831-7582-46ED-BBC7-2E6EBAFE2E3D}"/>
+    <hyperlink ref="D392" r:id="rId17" xr:uid="{0A0C0D54-A541-42DE-ABC5-41CC564ABEA8}"/>
+    <hyperlink ref="D376" r:id="rId18" xr:uid="{DA7DC7AC-3EA5-4F81-8E2F-EC3BB56ED976}"/>
+    <hyperlink ref="D377:D391" r:id="rId19" display="https://mitaoe.ac.in/assets/images/club/eparatua-mins.png" xr:uid="{5C6F7221-B8EE-49DF-8C7B-8592B640C67B}"/>
+    <hyperlink ref="D361" r:id="rId20" xr:uid="{7228DFB9-EF1E-4531-BB6D-C490C1B07968}"/>
+    <hyperlink ref="D362:D375" r:id="rId21" display="https://mitaoe.ac.in/assets/images/club/spark-club.jpg" xr:uid="{1AD4F3A9-55FA-4D3F-A306-9DA37E7A3097}"/>
+    <hyperlink ref="D341" r:id="rId22" xr:uid="{BD881FDC-420A-43CB-B6AE-142F868A4633}"/>
+    <hyperlink ref="D342:D360" r:id="rId23" display="https://rotarypunemetro.com/wp-content/uploads/Rcpm-23-24-300x286.jpg" xr:uid="{3DD92583-4AF6-4538-8BF9-6855034A0C45}"/>
+    <hyperlink ref="D320" r:id="rId24" xr:uid="{45FFF30E-A5B7-496C-B426-07D65A261F8B}"/>
+    <hyperlink ref="D321:D340" r:id="rId25" display="https://mitaoe.ac.in/assets/images/club/roboticsclub.png" xr:uid="{7680A8C0-D024-440F-8863-D430BFE435DF}"/>
+    <hyperlink ref="D300" r:id="rId26" xr:uid="{470A553F-07A6-4F2A-932B-9B1ABFDA06EB}"/>
+    <hyperlink ref="D301:D319" r:id="rId27" display="https://mitaoe.ac.in/assets/images/club/prakruti.png" xr:uid="{945B2129-1045-435F-9195-4B77EC3652EE}"/>
+    <hyperlink ref="D280" r:id="rId28" xr:uid="{BD8C6B91-EB5F-4A17-8A92-20CB0A313531}"/>
+    <hyperlink ref="D281:D299" r:id="rId29" display="https://mitaoe.ac.in/assets/images/club/googlestudentandfirefox.png" xr:uid="{A5655624-82DB-492A-9B0D-7C0166650F66}"/>
+    <hyperlink ref="D260" r:id="rId30" xr:uid="{22B1E1BE-35A3-404D-9EFD-17D01F074EB6}"/>
+    <hyperlink ref="D261:D279" r:id="rId31" display="https://mitaoe.ac.in/assets/images/club/image-13.png" xr:uid="{9C48E31C-06CE-449D-BD1A-CAD49D2ED475}"/>
+    <hyperlink ref="D239" r:id="rId32" xr:uid="{15F12499-DB0B-4D4F-9A60-1627E680B565}"/>
+    <hyperlink ref="D240:D259" r:id="rId33" display="https://mitaoe.ac.in/assets/images/club/literaryclub.png" xr:uid="{A0EFF82E-43D7-45ED-A387-9590CD8088A9}"/>
     <hyperlink ref="D86" r:id="rId34" xr:uid="{39F27A18-CD9B-4EFA-8A40-53E573CC1E8C}"/>
     <hyperlink ref="D87:D106" r:id="rId35" display="https://mitaoe.ac.in/assets/images/club/DSCMITAOE.png" xr:uid="{4DE523E9-7F05-46B8-BF3C-E44855CA8C00}"/>
     <hyperlink ref="D128" r:id="rId36" xr:uid="{476C1B46-1666-45DC-9B88-F8820CFAB902}"/>
@@ -7586,11 +7729,10 @@
     <hyperlink ref="D147" r:id="rId38" xr:uid="{E930DECE-DDEB-48CB-ADA1-D5FBF23F4574}"/>
     <hyperlink ref="D148:D176" r:id="rId39" display="https://mitaoe.ac.in/assets/images/club/drama.jpg" xr:uid="{EC12E5BB-7D3C-4DEA-A75B-4C3875F12BAE}"/>
     <hyperlink ref="D168" r:id="rId40" xr:uid="{5E81D9CB-FBFC-43D8-B339-029CF2D3B7BE}"/>
-    <hyperlink ref="D169:D199" r:id="rId41" display="https://mitaoe.ac.in/assets/images/club/drama.jpg" xr:uid="{A8AB10B4-5E02-45CF-9BCD-728CE617AE0D}"/>
-    <hyperlink ref="D189" r:id="rId42" xr:uid="{4CEAD7C8-5E9F-494D-981E-A983CA6D822D}"/>
-    <hyperlink ref="D190:D217" r:id="rId43" display="https://mitaoe.ac.in/assets/images/club/drama.jpg" xr:uid="{CF9B10C9-A3F0-49B2-A9E7-9E3EB27C0CAF}"/>
-    <hyperlink ref="D210" r:id="rId44" xr:uid="{54786251-7296-494E-84DA-C996AF13F9F1}"/>
-    <hyperlink ref="D211:D230" r:id="rId45" display="https://mitaoe.ac.in/assets/images/club/drama.jpg" xr:uid="{14629235-25A5-49C6-B103-64CC7B61E089}"/>
+    <hyperlink ref="D198:D225" r:id="rId41" display="https://mitaoe.ac.in/assets/images/club/drama.jpg" xr:uid="{CF9B10C9-A3F0-49B2-A9E7-9E3EB27C0CAF}"/>
+    <hyperlink ref="D218" r:id="rId42" xr:uid="{54786251-7296-494E-84DA-C996AF13F9F1}"/>
+    <hyperlink ref="D219:D238" r:id="rId43" display="https://mitaoe.ac.in/assets/images/club/drama.jpg" xr:uid="{14629235-25A5-49C6-B103-64CC7B61E089}"/>
+    <hyperlink ref="D197" r:id="rId44" xr:uid="{4CEAD7C8-5E9F-494D-981E-A983CA6D822D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
